--- a/data/trans_dic/P1403-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08813055366719301</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1289534129691678</v>
+        <v>0.1289534129691677</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1051122675977633</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08172201419395274</v>
+        <v>0.08159916324533252</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1252151186815641</v>
+        <v>0.1235191187944049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.101396048494564</v>
+        <v>0.1013700392940944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1798750480270456</v>
+        <v>0.1764647851173144</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06917555240110891</v>
+        <v>0.06637143623348757</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06220762258359101</v>
+        <v>0.06405187932285603</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0560081795668663</v>
+        <v>0.05868375907872021</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1038713316038076</v>
+        <v>0.106708127246848</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0849664245194988</v>
+        <v>0.08355051739524608</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1053961405583309</v>
+        <v>0.1074078838897359</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09116197566858417</v>
+        <v>0.08906109834670542</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1522499903518061</v>
+        <v>0.1521387235005544</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1404532653722862</v>
+        <v>0.1435882200009582</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.197413053799264</v>
+        <v>0.1994517339543559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1717282602102765</v>
+        <v>0.171255382601309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2461777326960054</v>
+        <v>0.2425463631032047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1371799782544639</v>
+        <v>0.1335870437313616</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1351860882756473</v>
+        <v>0.1349926898990042</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1285364089695287</v>
+        <v>0.1338022669370726</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1543225705381472</v>
+        <v>0.15459090260876</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1283854713910939</v>
+        <v>0.1274916567558387</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1619049565454735</v>
+        <v>0.1597325878472163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1372370051052256</v>
+        <v>0.1390671928335968</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1934740633444374</v>
+        <v>0.1953567720194046</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.08408536000374135</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1374953588347415</v>
+        <v>0.1374953588347416</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.08690341489031704</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0874930788707006</v>
+        <v>0.08845428937158888</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09436296960122126</v>
+        <v>0.09616024600919598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1119228865423999</v>
+        <v>0.1138991385388505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1823132912329511</v>
+        <v>0.1814645165698885</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03364686869762146</v>
+        <v>0.03284107875637545</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0688315608631087</v>
+        <v>0.068898299603996</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05656143794269492</v>
+        <v>0.05560883724122629</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1133681678122404</v>
+        <v>0.1127341475105755</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0689616582680581</v>
+        <v>0.06901725965205086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09148239345839448</v>
+        <v>0.09173084459880747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09222062035713291</v>
+        <v>0.09432571643807794</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1583348716734396</v>
+        <v>0.1577184751409052</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1545155776841544</v>
+        <v>0.1566999283513093</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1629417483415822</v>
+        <v>0.1596468300376246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1888067173030304</v>
+        <v>0.1857420239706108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2537106278036004</v>
+        <v>0.2517441377623519</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08294431436323603</v>
+        <v>0.08305957358172027</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1402025136155862</v>
+        <v>0.1338455652676047</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1208619171224461</v>
+        <v>0.1191606407130044</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1670907036921468</v>
+        <v>0.1641729944950792</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1112623830892257</v>
+        <v>0.1108146631460533</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1391449102056521</v>
+        <v>0.1415169557811322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1423854537665487</v>
+        <v>0.1420366589424818</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2039818328294835</v>
+        <v>0.2034468983972223</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1639039877350159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2086898039617658</v>
+        <v>0.2086898039617657</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1266331623277505</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09988291169299743</v>
+        <v>0.103417803493572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1813785928357487</v>
+        <v>0.1808903988737965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.13479045723194</v>
+        <v>0.1323600858684215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.175050777569129</v>
+        <v>0.1758150899362134</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08219480807073511</v>
+        <v>0.07987832611357212</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1746566086509209</v>
+        <v>0.1739230972003297</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1427165205397594</v>
+        <v>0.137987360917292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1957730564641206</v>
+        <v>0.1954418921573442</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1074931833658304</v>
+        <v>0.1063043625281342</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1867438904924255</v>
+        <v>0.1881011089679956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.146518536866458</v>
+        <v>0.1459862131764776</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1878764794504135</v>
+        <v>0.1905852241386558</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.159997284625682</v>
+        <v>0.1591673441983199</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2510581002468843</v>
+        <v>0.2475960640893407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1983278154083431</v>
+        <v>0.1945700643188417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2489617837517054</v>
+        <v>0.2478059016937835</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1884751683759483</v>
+        <v>0.1872619691293755</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2809598376917455</v>
+        <v>0.2793978029931182</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2773583005173325</v>
+        <v>0.2826602821680119</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2949726622721641</v>
+        <v>0.2944742419333045</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1562297123970096</v>
+        <v>0.1563357737891259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2450515101156772</v>
+        <v>0.2471450323464698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2055223445340463</v>
+        <v>0.2049386783944835</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2472902142489966</v>
+        <v>0.2479401247722237</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1849470446973666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2099956301538899</v>
+        <v>0.2099956301538898</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1425689802439618</v>
@@ -1105,7 +1105,7 @@
         <v>0.15444655173601</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1863880807935271</v>
+        <v>0.1863880807935272</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.151846319689753</v>
+        <v>0.1514824472934654</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1684947497941921</v>
+        <v>0.1693995293294687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1615884985163917</v>
+        <v>0.1639058353831778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.188401468964058</v>
+        <v>0.1883915850123518</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1187804732394843</v>
+        <v>0.1149669554135024</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08823720199879347</v>
+        <v>0.08716911150477924</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09013275712213971</v>
+        <v>0.09054565174539733</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1389267115001747</v>
+        <v>0.1371339887820703</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1440369958440098</v>
+        <v>0.1453636839835186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1430742224026841</v>
+        <v>0.1413430865155601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1375454575455632</v>
+        <v>0.13980248737215</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1717690884207925</v>
+        <v>0.1706214655654999</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1916758807291944</v>
+        <v>0.1928384269490801</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2182707123963391</v>
+        <v>0.2172018830650071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2067668009861879</v>
+        <v>0.2090257287671685</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2341649322766732</v>
+        <v>0.2348299281513181</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1708374858808277</v>
+        <v>0.1700450003800155</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1330345906834823</v>
+        <v>0.1322506265089992</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1350185930595326</v>
+        <v>0.134628702977725</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1753864251420031</v>
+        <v>0.1734333673078668</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1763818544298989</v>
+        <v>0.1788860106946377</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1772983598274144</v>
+        <v>0.1750589245957214</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1698171309136436</v>
+        <v>0.1725194352101672</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2024955718404554</v>
+        <v>0.2024862898781041</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1787710850326532</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2414547502376049</v>
+        <v>0.241454750237605</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09454102780967298</v>
+        <v>0.09153506493412746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1518568660975244</v>
+        <v>0.1502853146736198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1354193204082257</v>
+        <v>0.1348628211105961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.161208323310833</v>
+        <v>0.156634313611274</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1244050101337727</v>
+        <v>0.1294750274939337</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2240918741708249</v>
+        <v>0.2233868488301037</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1641618353675045</v>
+        <v>0.1651558717028226</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2553813470430513</v>
+        <v>0.2539885179794122</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1204244600051261</v>
+        <v>0.1218147660390617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2017296355611216</v>
+        <v>0.202753351915282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1542859756391485</v>
+        <v>0.1588776363291885</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2216580842880916</v>
+        <v>0.2228390383108623</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1617112763838519</v>
+        <v>0.1641303249414847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2241641990750285</v>
+        <v>0.2290783733601891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.192885711876445</v>
+        <v>0.1935902865549233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2218056010180806</v>
+        <v>0.2195085453250276</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1894402371309675</v>
+        <v>0.1907177928132578</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.286332112824183</v>
+        <v>0.284204107118274</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2240061344489025</v>
+        <v>0.2215999591444858</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3011178151119815</v>
+        <v>0.3021008159233851</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1662473531624333</v>
+        <v>0.1683243488017849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2506985194828787</v>
+        <v>0.2491515912287137</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1981601855422543</v>
+        <v>0.2010328008291515</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2604637639524969</v>
+        <v>0.2633293234359605</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.2180393158772441</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2272016068419013</v>
+        <v>0.2272016068419012</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005682104856876292</v>
+        <v>0.006039877915898101</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003732278388610725</v>
+        <v>0.003751598355088195</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008117980273202418</v>
+        <v>0.007656001544096427</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2250407887985356</v>
+        <v>0.2271287075069253</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2855046623220426</v>
+        <v>0.2845116903683222</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2483802764182149</v>
+        <v>0.2462714244804219</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2571888820959508</v>
+        <v>0.2577508928897723</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1837641914914657</v>
+        <v>0.1825528033833341</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2329974922258722</v>
+        <v>0.2312242536559351</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1950000785433571</v>
+        <v>0.1944779205145027</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2049996537976283</v>
+        <v>0.2070972295019151</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03319626796794677</v>
+        <v>0.03542282030351612</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0368241852857376</v>
+        <v>0.03721285590616598</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02335805962769241</v>
+        <v>0.02681504732999184</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04071925130927732</v>
+        <v>0.04088813019467043</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2742412187537094</v>
+        <v>0.2743325318266096</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3426718526931033</v>
+        <v>0.3455590050933827</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3049836422972252</v>
+        <v>0.3050459091108325</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.311562228899058</v>
+        <v>0.3109498942983003</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2263748425480029</v>
+        <v>0.2242439413403004</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2819685280689404</v>
+        <v>0.279014203090733</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.242066639780415</v>
+        <v>0.2429042936596058</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2492424773791962</v>
+        <v>0.2515476505930669</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.1648384026735768</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2032574718236444</v>
+        <v>0.2032574718236445</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.118990077531621</v>
+        <v>0.1201841717546918</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1550133621227719</v>
+        <v>0.1554191422447996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.139624176503399</v>
+        <v>0.1393960268271007</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1806724329767233</v>
+        <v>0.1808982747342679</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1564311983455083</v>
+        <v>0.1575407565065232</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1962714079359374</v>
+        <v>0.1960732409609031</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1624343519641215</v>
+        <v>0.165188354217169</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2023597450015089</v>
+        <v>0.2011147005610658</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1418458492693744</v>
+        <v>0.1413811574587936</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1796128310009136</v>
+        <v>0.1796700612482442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1550508506227612</v>
+        <v>0.1558926318309946</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1957191299763132</v>
+        <v>0.1947589245769189</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1426740062968254</v>
+        <v>0.1432609188420057</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1818888757918669</v>
+        <v>0.1827439389562226</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.164204663098399</v>
+        <v>0.1648425262566021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2054953291139088</v>
+        <v>0.2057189735903609</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1829146375613063</v>
+        <v>0.1823746670316132</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2230703777111041</v>
+        <v>0.2238034389052987</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1896346813600882</v>
+        <v>0.1921671884704909</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2232874165516656</v>
+        <v>0.2232828218187431</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1593218474927613</v>
+        <v>0.159218185375185</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1986195565436309</v>
+        <v>0.1990409307911508</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1738543914269458</v>
+        <v>0.1738730960149528</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2111832465121393</v>
+        <v>0.2116917518118431</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38718</v>
+        <v>38660</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54745</v>
+        <v>54004</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43508</v>
+        <v>43497</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>98621</v>
+        <v>96751</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21215</v>
+        <v>20355</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19561</v>
+        <v>20141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19438</v>
+        <v>20366</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50732</v>
+        <v>52117</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>66313</v>
+        <v>65208</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>79223</v>
+        <v>80735</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>70755</v>
+        <v>69125</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>157835</v>
+        <v>157720</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66543</v>
+        <v>68029</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86311</v>
+        <v>87202</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73687</v>
+        <v>73484</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134973</v>
+        <v>132982</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42070</v>
+        <v>40968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42510</v>
+        <v>42449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44609</v>
+        <v>46437</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>75373</v>
+        <v>75504</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>100199</v>
+        <v>99502</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>121698</v>
+        <v>120065</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>106516</v>
+        <v>107937</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>200571</v>
+        <v>202523</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32104</v>
+        <v>32457</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39519</v>
+        <v>40272</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42220</v>
+        <v>42966</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>88096</v>
+        <v>87686</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12512</v>
+        <v>12212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23266</v>
+        <v>23288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21056</v>
+        <v>20702</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47828</v>
+        <v>47561</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50949</v>
+        <v>50990</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>69235</v>
+        <v>69423</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>69119</v>
+        <v>70697</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>143309</v>
+        <v>142751</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56697</v>
+        <v>57499</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68240</v>
+        <v>66860</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>71223</v>
+        <v>70067</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>122596</v>
+        <v>121646</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30844</v>
+        <v>30887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>47390</v>
+        <v>45241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44994</v>
+        <v>44360</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>70493</v>
+        <v>69262</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82201</v>
+        <v>81870</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>105306</v>
+        <v>107101</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>106718</v>
+        <v>106456</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>184624</v>
+        <v>184139</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54175</v>
+        <v>56093</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>114162</v>
+        <v>113855</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70349</v>
+        <v>69081</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>82404</v>
+        <v>82764</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13791</v>
+        <v>13402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>45433</v>
+        <v>45242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23708</v>
+        <v>22923</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36575</v>
+        <v>36513</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76339</v>
+        <v>75494</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>166117</v>
+        <v>167324</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>100810</v>
+        <v>100444</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>123541</v>
+        <v>125322</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86781</v>
+        <v>86331</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>158020</v>
+        <v>155841</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103510</v>
+        <v>101549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>117197</v>
+        <v>116653</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31623</v>
+        <v>31419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>73086</v>
+        <v>72679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46076</v>
+        <v>46956</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55107</v>
+        <v>55014</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110950</v>
+        <v>111025</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>217984</v>
+        <v>219846</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>141407</v>
+        <v>141005</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>162610</v>
+        <v>163037</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>188036</v>
+        <v>187586</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>195287</v>
+        <v>196336</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>185768</v>
+        <v>188432</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>212946</v>
+        <v>212935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>84843</v>
+        <v>82119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>67477</v>
+        <v>66660</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>74438</v>
+        <v>74779</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>119561</v>
+        <v>118018</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>281250</v>
+        <v>283840</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>275236</v>
+        <v>271906</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>271723</v>
+        <v>276182</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>341972</v>
+        <v>339687</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>237359</v>
+        <v>238798</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>252978</v>
+        <v>251739</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>237707</v>
+        <v>240304</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>264672</v>
+        <v>265423</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>122027</v>
+        <v>121461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>101734</v>
+        <v>101135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111509</v>
+        <v>111187</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>150938</v>
+        <v>149257</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>344407</v>
+        <v>349296</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>341074</v>
+        <v>336766</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>335476</v>
+        <v>340815</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>403145</v>
+        <v>403126</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33142</v>
+        <v>32088</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77538</v>
+        <v>76735</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>84056</v>
+        <v>83710</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>91401</v>
+        <v>88808</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>70756</v>
+        <v>73639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>170365</v>
+        <v>169829</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>121191</v>
+        <v>121925</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>211854</v>
+        <v>210698</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110707</v>
+        <v>111985</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>256367</v>
+        <v>257668</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>209667</v>
+        <v>215907</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>309553</v>
+        <v>311203</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56689</v>
+        <v>57537</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>114457</v>
+        <v>116967</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>119725</v>
+        <v>120163</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>125758</v>
+        <v>124456</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107745</v>
+        <v>108471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>217683</v>
+        <v>216065</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>165371</v>
+        <v>163595</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>249795</v>
+        <v>250610</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>152832</v>
+        <v>154742</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>318598</v>
+        <v>316633</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>269290</v>
+        <v>273194</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>363747</v>
+        <v>367749</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1694</v>
+        <v>1801</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1926</v>
+        <v>1816</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>281022</v>
+        <v>283629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>316409</v>
+        <v>315308</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>268754</v>
+        <v>266472</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>216860</v>
+        <v>217334</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>284276</v>
+        <v>282402</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>320401</v>
+        <v>317962</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>266988</v>
+        <v>266273</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>221486</v>
+        <v>223753</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9899</v>
+        <v>10563</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9828</v>
+        <v>9931</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6707</v>
+        <v>7700</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9660</v>
+        <v>9700</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>342461</v>
+        <v>342575</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>379764</v>
+        <v>382963</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>330000</v>
+        <v>330067</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>262708</v>
+        <v>262191</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>350193</v>
+        <v>346896</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>387742</v>
+        <v>383679</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>331430</v>
+        <v>332577</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>269287</v>
+        <v>271778</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>389120</v>
+        <v>393025</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>530442</v>
+        <v>531830</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>472729</v>
+        <v>471956</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>620919</v>
+        <v>621695</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>528444</v>
+        <v>532192</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>695940</v>
+        <v>695238</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>573653</v>
+        <v>583379</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>734662</v>
+        <v>730142</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>943036</v>
+        <v>939946</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1251491</v>
+        <v>1251890</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1072536</v>
+        <v>1078359</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1383183</v>
+        <v>1376398</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>466571</v>
+        <v>468490</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>622407</v>
+        <v>625333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>555951</v>
+        <v>558111</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>706228</v>
+        <v>706996</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>617908</v>
+        <v>616084</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>790964</v>
+        <v>793564</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>669713</v>
+        <v>678657</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>810640</v>
+        <v>810623</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1059222</v>
+        <v>1058532</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1383925</v>
+        <v>1386861</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1202606</v>
+        <v>1202735</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1492471</v>
+        <v>1496065</v>
       </c>
     </row>
     <row r="32">
